--- a/JAR-StockManager/Data/Tickers.xlsx
+++ b/JAR-StockManager/Data/Tickers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\revature-workspace\Jar-P2\JAR-StockManager\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5928bd39eca494ab/Documents/UiPath/Jar-P2/JAR-StockManager/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0742FC-B004-470D-8AD1-BEDC485A9A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5D0742FC-B004-470D-8AD1-BEDC485A9A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7A2A8E1-9382-4373-9BFA-C60293010AB8}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{D160A966-1FA9-4608-9543-15B20340F834}"/>
+    <workbookView xWindow="3576" yWindow="1320" windowWidth="17280" windowHeight="8964" xr2:uid="{D160A966-1FA9-4608-9543-15B20340F834}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,12 +418,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
